--- a/CashDropTable.xlsx
+++ b/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,325 +40,271 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010506136</t>
-  </si>
-  <si>
-    <t>12010146695</t>
-  </si>
-  <si>
-    <t>12010130133</t>
-  </si>
-  <si>
-    <t>90000024649</t>
-  </si>
-  <si>
-    <t>12010110296</t>
-  </si>
-  <si>
-    <t>12010146523</t>
-  </si>
-  <si>
-    <t>12010110331</t>
-  </si>
-  <si>
-    <t>12010139354</t>
-  </si>
-  <si>
-    <t>90000021057</t>
-  </si>
-  <si>
-    <t>12010139021</t>
-  </si>
-  <si>
-    <t>12010500758</t>
-  </si>
-  <si>
-    <t>12010145408</t>
-  </si>
-  <si>
-    <t>12010506526</t>
-  </si>
-  <si>
-    <t>12010505143</t>
-  </si>
-  <si>
-    <t>12010110295</t>
-  </si>
-  <si>
-    <t>12010110761</t>
-  </si>
-  <si>
-    <t>90000003747</t>
-  </si>
-  <si>
-    <t>12010509077</t>
-  </si>
-  <si>
-    <t>1201500531</t>
-  </si>
-  <si>
-    <t>90000012767</t>
-  </si>
-  <si>
-    <t>Pharma Plus</t>
-  </si>
-  <si>
-    <t>Pharma Land</t>
-  </si>
-  <si>
-    <t>Harun Eye Foundation And Hospi</t>
-  </si>
-  <si>
-    <t>Lavender Drug Corner   2</t>
-  </si>
-  <si>
-    <t>Tivoli Pharmacy</t>
-  </si>
-  <si>
-    <t>Jamuna Pharmacy</t>
-  </si>
-  <si>
-    <t>Lazz Pharma Ltd</t>
-  </si>
-  <si>
-    <t>Suvo Pharmacy</t>
-  </si>
-  <si>
-    <t>New Bangladesh Pharma</t>
-  </si>
-  <si>
-    <t>Rahmania Pharmacy</t>
-  </si>
-  <si>
-    <t>Leed Pharma 3</t>
-  </si>
-  <si>
-    <t>Sharif Medical Hall</t>
-  </si>
-  <si>
-    <t>Jayan Medicine Corner</t>
-  </si>
-  <si>
-    <t>Ismail Drug House</t>
-  </si>
-  <si>
-    <t>Aftab Drug Store</t>
-  </si>
-  <si>
-    <t>Al Shefa Medicine Corner</t>
-  </si>
-  <si>
-    <t>Plus Well Pharma</t>
-  </si>
-  <si>
-    <t>Shin Pharmacy</t>
-  </si>
-  <si>
-    <t>Sheba Medicine Corner</t>
-  </si>
-  <si>
-    <t>Shek Drug House</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajuk ComplaxUttoraDhaka                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 2 A Road 2 BSector 11 Main Road Uttara                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 12 A Road No 5 Dhanmondi Mirpur RoadDhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/A Meher Plaza,Road # 05,Dhanmondi,Dhaka                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Shahabug Biponi BitanShahabugDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMCHDhanmondiDhaka                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 1st Lane KalabaganDhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBangla RoadZigatolaDhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMCH Gate, Shankor, Dhanmondi , Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAC MarketAzampur Kacha BazarUttora                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86 87 Shaheedpark Market Mohammadpur Dhaka                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Hall BazarMohammadpurDhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R 2 BH 21Dhaka UddanMohammadpurDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 Aziz Co Operative MarketShahbag Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 Shahabug Biponi BitanShahabugDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 73 Road 03Mohammadia Housing LtdDhaka                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur,Kachabazar,Uttara,Dhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModuBazarDhaka                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">237 Satarkool RoadHossenbag North BaddaDhaka                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karail,Banani,Dhaka                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM55                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0117698        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0121028        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-884677     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-893270     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-894116     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-895819     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896618     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896206     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-897269     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896994     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896962     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-897326     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-897042     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-898790     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-898637     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899085     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899147     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899350     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900041     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899775     </t>
-  </si>
-  <si>
-    <t>24 Aug 2011</t>
-  </si>
-  <si>
-    <t>28 Aug 2011</t>
+    <t>51051100058</t>
+  </si>
+  <si>
+    <t>51051001761</t>
+  </si>
+  <si>
+    <t>51051003243</t>
+  </si>
+  <si>
+    <t>51051004016</t>
+  </si>
+  <si>
+    <t>51051102294</t>
+  </si>
+  <si>
+    <t>51052140048</t>
+  </si>
+  <si>
+    <t>90000014421</t>
+  </si>
+  <si>
+    <t>51052139139</t>
+  </si>
+  <si>
+    <t>51052104197</t>
+  </si>
+  <si>
+    <t>51051100328</t>
+  </si>
+  <si>
+    <t>51051001021</t>
+  </si>
+  <si>
+    <t>51051001250</t>
+  </si>
+  <si>
+    <t>51052438672</t>
+  </si>
+  <si>
+    <t>51052139196</t>
+  </si>
+  <si>
+    <t>51051100015</t>
+  </si>
+  <si>
+    <t>51011100056</t>
+  </si>
+  <si>
+    <t>51052104951</t>
+  </si>
+  <si>
+    <t>51052004039</t>
+  </si>
+  <si>
+    <t>51052106042</t>
+  </si>
+  <si>
+    <t>New Medical Hall</t>
+  </si>
+  <si>
+    <t>Aushad Biponi</t>
+  </si>
+  <si>
+    <t>Moon Medicine</t>
+  </si>
+  <si>
+    <t>Diba Ratri Medical Hall</t>
+  </si>
+  <si>
+    <t>Life Medicine</t>
+  </si>
+  <si>
+    <t>Sikder Medical Hall</t>
+  </si>
+  <si>
+    <t>Abid Medical Hall</t>
+  </si>
+  <si>
+    <t>Musfique Medical Hall</t>
+  </si>
+  <si>
+    <t>Sonali Medical Hall</t>
+  </si>
+  <si>
+    <t>Zaman Medical Hall</t>
+  </si>
+  <si>
+    <t>Medicus Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Riaz Moni Medicine House</t>
+  </si>
+  <si>
+    <t>Seba Medical Hall</t>
+  </si>
+  <si>
+    <t>Azad Medical Hall</t>
+  </si>
+  <si>
+    <t>Agrani Medical Hall</t>
+  </si>
+  <si>
+    <t>Noor A Madina Pharmacy</t>
+  </si>
+  <si>
+    <t>Rana Drug House</t>
+  </si>
+  <si>
+    <t>R K Medical Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Barisal                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miharhat Swarupkhati                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miarhat Nesarabad Pirojpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inderhat, Swarupkathi                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indurhat Bazar Swarupkathi Pirojpur                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indurhat Nesarabad Pirojpur                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miarhat Bazar Swarupkathi Pirojpur                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upazela Gate Gouranadi                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital gate Madaripur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charfashion Bhola                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-409843     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-418011     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-419390     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-420469     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-426074     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-427647     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-435776     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-435777     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-435898     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-440810     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-440898     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-445895     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-445952     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-445984     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-446795     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-449713     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-450119     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-451022     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-451137     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-451302     </t>
+  </si>
+  <si>
+    <t>05 Dec 2019</t>
+  </si>
+  <si>
+    <t>25 Dec 2019</t>
+  </si>
+  <si>
+    <t>30 Dec 2019</t>
+  </si>
+  <si>
+    <t>01 Jan 2020</t>
+  </si>
+  <si>
+    <t>13 Jan 2020</t>
+  </si>
+  <si>
+    <t>15 Jan 2020</t>
+  </si>
+  <si>
+    <t>01 Feb 2020</t>
+  </si>
+  <si>
+    <t>02 Feb 2020</t>
+  </si>
+  <si>
+    <t>12 Feb 2020</t>
+  </si>
+  <si>
+    <t>22 Feb 2020</t>
   </si>
   <si>
     <t>24 Feb 2020</t>
   </si>
   <si>
-    <t>06 Mar 2020</t>
-  </si>
-  <si>
-    <t>08 Mar 2020</t>
-  </si>
-  <si>
-    <t>09 Mar 2020</t>
-  </si>
-  <si>
-    <t>10 Mar 2020</t>
-  </si>
-  <si>
-    <t>11 Mar 2020</t>
-  </si>
-  <si>
-    <t>12 Mar 2020</t>
-  </si>
-  <si>
-    <t>13 Mar 2020</t>
-  </si>
-  <si>
-    <t>14 Mar 2020</t>
+    <t>29 Feb 2020</t>
+  </si>
+  <si>
+    <t>02 Mar 2020</t>
+  </si>
+  <si>
+    <t>04 Mar 2020</t>
   </si>
 </sst>
 </file>
@@ -756,25 +702,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H2">
-        <v>3130</v>
+        <v>149</v>
       </c>
       <c r="I2">
-        <v>8081.55</v>
+        <v>8792.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -785,25 +731,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H3">
-        <v>3126</v>
+        <v>129</v>
       </c>
       <c r="I3">
-        <v>10895.59</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -814,25 +760,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I4">
-        <v>21561.73</v>
+        <v>5968.75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -843,25 +789,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="I5">
-        <v>765.0700000000001</v>
+        <v>9460.440000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -872,25 +818,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I6">
-        <v>3406.69</v>
+        <v>3959.58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -901,25 +847,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="I7">
-        <v>4982.71</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -930,25 +876,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>15000.08</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -959,25 +905,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9">
         <v>91</v>
       </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
       <c r="I9">
-        <v>418.03</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -988,25 +934,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="I10">
-        <v>8031.66</v>
+        <v>1090.52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1017,25 +963,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I11">
-        <v>5418.6</v>
+        <v>11698.17</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1046,25 +992,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I12">
-        <v>3490.84</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1075,25 +1021,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>1745.42</v>
+        <v>5792.16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1104,25 +1050,25 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>1221.57</v>
+        <v>1029.64</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1130,28 +1076,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>226.06</v>
+        <v>591.4299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1159,28 +1105,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="I16">
-        <v>191.37</v>
+        <v>3664.74</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1188,28 +1134,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
       <c r="I17">
-        <v>2037.87</v>
+        <v>6590.54</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1217,28 +1163,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I18">
-        <v>1568.84</v>
+        <v>1075.15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1246,28 +1192,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I19">
-        <v>589.64</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1275,28 +1221,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I20">
-        <v>14295.24</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1304,28 +1250,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I21">
-        <v>7649.75</v>
+        <v>3491.33</v>
       </c>
     </row>
   </sheetData>

--- a/CashDropTable.xlsx
+++ b/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,298 +40,310 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>90000018052</t>
-  </si>
-  <si>
-    <t>25061009979</t>
-  </si>
-  <si>
-    <t>25061401423</t>
-  </si>
-  <si>
-    <t>90000027271</t>
-  </si>
-  <si>
-    <t>25061006020</t>
-  </si>
-  <si>
-    <t>25061000722</t>
-  </si>
-  <si>
-    <t>25061401437</t>
-  </si>
-  <si>
-    <t>25061414284</t>
-  </si>
-  <si>
-    <t>90000010313</t>
-  </si>
-  <si>
-    <t>25061003064</t>
-  </si>
-  <si>
-    <t>25061413444</t>
-  </si>
-  <si>
-    <t>25061003195</t>
-  </si>
-  <si>
-    <t>25061001763</t>
-  </si>
-  <si>
-    <t>25061004513</t>
-  </si>
-  <si>
-    <t>25061401259</t>
-  </si>
-  <si>
-    <t>25061100273</t>
-  </si>
-  <si>
-    <t>25061102604</t>
-  </si>
-  <si>
-    <t>90000013732</t>
-  </si>
-  <si>
-    <t>25061006427</t>
-  </si>
-  <si>
-    <t>Oshsini Medical Hall</t>
-  </si>
-  <si>
-    <t>Chowdury Medical Hall</t>
-  </si>
-  <si>
-    <t>Khan Madicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandpur Pharma  Model Pharma </t>
-  </si>
-  <si>
-    <t>Hamd Pharmacy</t>
-  </si>
-  <si>
-    <t>Gazi Medical Hall</t>
-  </si>
-  <si>
-    <t>Madina Pharmacy and Daiagonist</t>
-  </si>
-  <si>
-    <t>Bahi Bhai Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seba Medical hall</t>
-  </si>
-  <si>
-    <t>International Drug House</t>
-  </si>
-  <si>
-    <t>Zahera Madical Hall</t>
-  </si>
-  <si>
-    <t>Hriday Pharmacy</t>
-  </si>
-  <si>
-    <t>Jayanta Medical Hall</t>
-  </si>
-  <si>
-    <t>Barura Pharmacy</t>
-  </si>
-  <si>
-    <t>Tanha Medical hall</t>
-  </si>
-  <si>
-    <t>Kazi Pharmacy</t>
-  </si>
-  <si>
-    <t>Janani Pharmacy</t>
-  </si>
-  <si>
-    <t>Mazumder Pharmacy</t>
-  </si>
-  <si>
-    <t>Niramoy Medical Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radha Market, Chandra Bazar                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bizara Main Road Barura Comilla                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poura Market,Natun Bazar, Chandpur                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalibari, Rail Station Gate,Chandpur                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durgapur Bazar, Matlab North                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chayabani More, Mission Road ,Chandpur                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrani Bank Road,Boxagonj Nangolkot                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birampur Bazar, Haimchar Chandpur                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maloy More, Birampur, Faridgonj                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mudaffargong,Laksam, Comilla                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">School Road,Premnol  Bazar,Laksham                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Road Bagmara,Laksham, Comilla                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payalgacha Barura Comilla DLNo 1397 A                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kashem Park, Barura, Comilla DL No 3720 B                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagmara Dakhin Bazar,Laksham,Comilla                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mannara Utter Bazar Nangolkot Comilla                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algi Bazar, Haimchar                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalir Bazar,Faridgonj,Chandpur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laxmipur Bazar, Matlab, Chandpur                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL94                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL83                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-166463     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-364705     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-365216     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-366222     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-366345     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-367673     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-367315     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-368375     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-368342     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-370050     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369159     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369945     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369954     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369433     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369788     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369901     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369220     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-370557     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-369700     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV250-370158     </t>
-  </si>
-  <si>
-    <t>10 Nov 2018</t>
-  </si>
-  <si>
-    <t>28 May 2020</t>
-  </si>
-  <si>
-    <t>30 May 2020</t>
-  </si>
-  <si>
-    <t>01 Jun 2020</t>
-  </si>
-  <si>
-    <t>02 Jun 2020</t>
-  </si>
-  <si>
-    <t>04 Jun 2020</t>
-  </si>
-  <si>
-    <t>05 Jun 2020</t>
-  </si>
-  <si>
-    <t>08 Jun 2020</t>
-  </si>
-  <si>
-    <t>09 Jun 2020</t>
+    <t>12010506136</t>
+  </si>
+  <si>
+    <t>12010146695</t>
+  </si>
+  <si>
+    <t>12010130133</t>
+  </si>
+  <si>
+    <t>12010509979</t>
+  </si>
+  <si>
+    <t>12010146681</t>
+  </si>
+  <si>
+    <t>12010510262</t>
+  </si>
+  <si>
+    <t>12010511288</t>
+  </si>
+  <si>
+    <t>12010505207</t>
+  </si>
+  <si>
+    <t>12010501411</t>
+  </si>
+  <si>
+    <t>12010509322</t>
+  </si>
+  <si>
+    <t>12010507529</t>
+  </si>
+  <si>
+    <t>90000021057</t>
+  </si>
+  <si>
+    <t>12010146646</t>
+  </si>
+  <si>
+    <t>12010144603</t>
+  </si>
+  <si>
+    <t>12010121367</t>
+  </si>
+  <si>
+    <t>12010125729</t>
+  </si>
+  <si>
+    <t>12010507520</t>
+  </si>
+  <si>
+    <t>12010508000</t>
+  </si>
+  <si>
+    <t>12010146523</t>
+  </si>
+  <si>
+    <t>1201500554</t>
+  </si>
+  <si>
+    <t>Pharma Plus</t>
+  </si>
+  <si>
+    <t>Pharma Land</t>
+  </si>
+  <si>
+    <t>Harun Eye Foundation And Hospi</t>
+  </si>
+  <si>
+    <t>Anower Khan Modern Hospital In</t>
+  </si>
+  <si>
+    <t>Day Night Pharmacy 2</t>
+  </si>
+  <si>
+    <t>Jannat PharmacyAnd Doctor Cham</t>
+  </si>
+  <si>
+    <t>Bulbuli Pharmacy</t>
+  </si>
+  <si>
+    <t>S Pharma</t>
+  </si>
+  <si>
+    <t>Mahin Pharma</t>
+  </si>
+  <si>
+    <t>Asian Drug House</t>
+  </si>
+  <si>
+    <t>Al Modina Pharmacy</t>
+  </si>
+  <si>
+    <t>New Bangladesh Pharma</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Pharmacy</t>
+  </si>
+  <si>
+    <t>Janoprio Pharmacy</t>
+  </si>
+  <si>
+    <t>Medicos Pharmacy Janani</t>
+  </si>
+  <si>
+    <t>Green View Clinic</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Taha Pharmacy</t>
+  </si>
+  <si>
+    <t>Jamuna Pharmacy</t>
+  </si>
+  <si>
+    <t>Chandrima Medicne Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajuk ComplaxUttoraDhaka                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 2 A Road 2 BSector 11 Main Road Uttara                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 12 A Road No 5 Dhanmondi Mirpur RoadDhaka             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanmondi 8Dhaka                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMCHDhanmondiDhaka                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 D Garments RoadJafrabadDhaka                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ga 9 2 SahazadpurBaddaDhaka                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMCH DhanmondiDhaka                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 Monesshor RoadTannery RoadDhaka                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zigatola                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road Np 09 Hous No 23Nikunzo 2 Uttora                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMCH Gate, Shankor, Dhanmondi , Dhaka                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Co Operative MarketShahbagDhaka                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Co OprativeMedicine Market ShahabagDhaka               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShahbagDhaka                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 3 Green RoadDhaka                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infront of BMCHDhanmondiSanker                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">410 Bikrompur nibashGawair UttaraDhaka                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha 87 C North BaddaRampura                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD64                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM15                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN-0117698        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN-0121028        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-884677     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-946974     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-962106     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-979201     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-980972     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-981582     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-981152     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-981151     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982378     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982341     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982163     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982987     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982909     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-983200     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982856     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982555     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982633     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-982469     </t>
+  </si>
+  <si>
+    <t>24 Aug 2011</t>
+  </si>
+  <si>
+    <t>28 Aug 2011</t>
+  </si>
+  <si>
+    <t>24 Feb 2020</t>
+  </si>
+  <si>
+    <t>21 May 2020</t>
+  </si>
+  <si>
+    <t>11 Jun 2020</t>
+  </si>
+  <si>
+    <t>28 Jun 2020</t>
+  </si>
+  <si>
+    <t>30 Jun 2020</t>
+  </si>
+  <si>
+    <t>01 Jul 2020</t>
+  </si>
+  <si>
+    <t>02 Jul 2020</t>
   </si>
 </sst>
 </file>
@@ -729,25 +741,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H2">
-        <v>583</v>
+        <v>3240</v>
       </c>
       <c r="I2">
-        <v>9122.49</v>
+        <v>8081.55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -758,25 +770,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>3236</v>
       </c>
       <c r="I3">
-        <v>362.2</v>
+        <v>10895.59</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -787,25 +799,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I4">
-        <v>528.04</v>
+        <v>21561.73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -816,25 +828,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>3825.57</v>
+        <v>16170</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -845,25 +857,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>315.69</v>
+        <v>890.53</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -874,25 +886,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>5215.47</v>
+        <v>968.1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -903,25 +915,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>2164.29</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -932,25 +944,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>1000.66</v>
+        <v>3494.12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -961,25 +973,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>404.43</v>
+        <v>1740.45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -990,25 +1002,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H11">
         <v>7</v>
       </c>
       <c r="I11">
-        <v>7115.73</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1019,25 +1031,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>2758.07</v>
+        <v>14034.55</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1048,25 +1060,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>1385.57</v>
+        <v>6918.01</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1074,28 +1086,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>1308.86</v>
+        <v>5283.21</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1103,28 +1115,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>985.34</v>
+        <v>25357.67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1132,28 +1144,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>850.0700000000001</v>
+        <v>14273.62</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1161,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>744.03</v>
+        <v>13481.24</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1190,28 +1202,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>420.42</v>
+        <v>6448.21</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1219,28 +1231,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>7558.73</v>
+        <v>4442.61</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1248,28 +1260,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>6125.1</v>
+        <v>3988.32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1277,28 +1289,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>5503.49</v>
+        <v>3821</v>
       </c>
     </row>
   </sheetData>
